--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\myproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,9 +41,6 @@
     <t>p1</t>
   </si>
   <si>
-    <t>red</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>pink</t>
+  </si>
+  <si>
+    <t>blue</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -410,10 +410,10 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -424,7 +424,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -432,13 +432,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -446,13 +446,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -460,13 +460,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>7</v>
